--- a/REVER_DailyTracker_20200911.xlsx
+++ b/REVER_DailyTracker_20200911.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD20ACC-CBFB-41AA-B51A-E8E78EFA9563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92F62E7-EF76-4C86-BD3C-D0BCAEF9FD37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="161">
   <si>
     <t>Task</t>
   </si>
@@ -560,6 +554,15 @@
   </si>
   <si>
     <t>2. B2B extended warranty is in progress from the afternoon</t>
+  </si>
+  <si>
+    <t>QMVAR-Sony</t>
+  </si>
+  <si>
+    <t>RMS invoice captcha issues,relogin with recaptcha,error msg for 20 mins</t>
+  </si>
+  <si>
+    <t>Given code to Mohan sir</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1033,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+    <sheetView topLeftCell="A298" workbookViewId="0">
       <selection activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
@@ -2448,8 +2451,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2486,14 +2489,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
